--- a/PALLET.xlsx
+++ b/PALLET.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmenghi\Desktop\RUTEO\SALUD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1ED9D850-49A9-49B3-8B0C-C68EAAF19EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF4EEAED-34FB-4EBA-9534-4AE2BE111C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{04544687-9D95-40A0-B3A7-0E2193526AE5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{691326F0-D48E-48D6-8EC9-50195BD48D18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="375">
   <si>
     <t>Equipo</t>
   </si>
@@ -174,16 +174,937 @@
     <t>Calidad – GEO</t>
   </si>
   <si>
-    <t>1229120784</t>
-  </si>
-  <si>
-    <t>HOSP. DE ONCOLOGIA MARIA CURRIE</t>
-  </si>
-  <si>
-    <t>AV. PATRICIAS ARGENTINAS</t>
-  </si>
-  <si>
-    <t>150</t>
+    <t>1229041613</t>
+  </si>
+  <si>
+    <t>SALA DE SALUD GRISELDA DEL GIUDICE</t>
+  </si>
+  <si>
+    <t>ATENAS E/ ALGARROBOS Y GRANADEROS</t>
+  </si>
+  <si>
+    <t>SAN JUSTO</t>
+  </si>
+  <si>
+    <t>Buenos Aires</t>
+  </si>
+  <si>
+    <t>0800</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>LOG IN FARMA SRL</t>
+  </si>
+  <si>
+    <t>-34.58723</t>
+  </si>
+  <si>
+    <t>-58.43693</t>
+  </si>
+  <si>
+    <t>MS004845443</t>
+  </si>
+  <si>
+    <t>000000001229041613</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>1754</t>
+  </si>
+  <si>
+    <t>Envio</t>
+  </si>
+  <si>
+    <t>20251117</t>
+  </si>
+  <si>
+    <t>Distribucion Botiquines Estandar</t>
+  </si>
+  <si>
+    <t>GBAO</t>
+  </si>
+  <si>
+    <t>PENDIENTE DE DISTRIBUCION</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Dist. medicamentos, insum. y Tec. médica</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>UrlHere</t>
+  </si>
+  <si>
+    <t>UNKNOW</t>
+  </si>
+  <si>
+    <t>1229041619</t>
+  </si>
+  <si>
+    <t>CIC 2 DE ABRIL - LA MATANZA</t>
+  </si>
+  <si>
+    <t>MARIA SANCHEZ DE THOMPSON Y COLECT AUTOP</t>
+  </si>
+  <si>
+    <t>LA MATANZA</t>
+  </si>
+  <si>
+    <t>-34.68951</t>
+  </si>
+  <si>
+    <t>-58.49362</t>
+  </si>
+  <si>
+    <t>MS004846271</t>
+  </si>
+  <si>
+    <t>000000001229041619</t>
+  </si>
+  <si>
+    <t>1766</t>
+  </si>
+  <si>
+    <t>1229041643</t>
+  </si>
+  <si>
+    <t>PUESTO FIJO ARCOS DEL MIRADOR</t>
+  </si>
+  <si>
+    <t>SOLDADO OSVALDO SOSA 3071</t>
+  </si>
+  <si>
+    <t>GREGORIO DE LAFERRERE</t>
+  </si>
+  <si>
+    <t>-34.72018</t>
+  </si>
+  <si>
+    <t>-58.60358</t>
+  </si>
+  <si>
+    <t>MS004846410</t>
+  </si>
+  <si>
+    <t>000000001229041643</t>
+  </si>
+  <si>
+    <t>1757</t>
+  </si>
+  <si>
+    <t>APPROXIMATE</t>
+  </si>
+  <si>
+    <t>1229041666</t>
+  </si>
+  <si>
+    <t>-34.5994998</t>
+  </si>
+  <si>
+    <t>-58.3670165</t>
+  </si>
+  <si>
+    <t>MS004846272</t>
+  </si>
+  <si>
+    <t>000000001229041666</t>
+  </si>
+  <si>
+    <t>GoogleAPI</t>
+  </si>
+  <si>
+    <t>1229041684</t>
+  </si>
+  <si>
+    <t>-34.6632505</t>
+  </si>
+  <si>
+    <t>-58.5868504</t>
+  </si>
+  <si>
+    <t>MS004845444</t>
+  </si>
+  <si>
+    <t>000000001229041684</t>
+  </si>
+  <si>
+    <t>1229041716</t>
+  </si>
+  <si>
+    <t>UNID SANIT Bº SAN JOSE OBRERO</t>
+  </si>
+  <si>
+    <t>LOS TOLDOS Y CASTAÑOS- MANZANA 19</t>
+  </si>
+  <si>
+    <t>-34.7497482</t>
+  </si>
+  <si>
+    <t>-58.5845909</t>
+  </si>
+  <si>
+    <t>MS004846408</t>
+  </si>
+  <si>
+    <t>000000001229041716</t>
+  </si>
+  <si>
+    <t>1229041772</t>
+  </si>
+  <si>
+    <t>UPA 24 Nº 4 - LA MATANZA</t>
+  </si>
+  <si>
+    <t>RUTA NAC 3, KM 29.5</t>
+  </si>
+  <si>
+    <t>GONZALEZ CATAN</t>
+  </si>
+  <si>
+    <t>-34.7651886</t>
+  </si>
+  <si>
+    <t>-58.6172841</t>
+  </si>
+  <si>
+    <t>MS004846540</t>
+  </si>
+  <si>
+    <t>000000001229041772</t>
+  </si>
+  <si>
+    <t>1759</t>
+  </si>
+  <si>
+    <t>UrlGoogle</t>
+  </si>
+  <si>
+    <t>1229041777</t>
+  </si>
+  <si>
+    <t>UNIDAD DE SALUD Bº INDEPENDENCIA</t>
+  </si>
+  <si>
+    <t>JUAN COBO E/ ESTEBAN DE LUCA Y JOSE HERN</t>
+  </si>
+  <si>
+    <t>-34.76289</t>
+  </si>
+  <si>
+    <t>-58.60963</t>
+  </si>
+  <si>
+    <t>MS004846113</t>
+  </si>
+  <si>
+    <t>000000001229041777</t>
+  </si>
+  <si>
+    <t>1229041791</t>
+  </si>
+  <si>
+    <t>MS004846409</t>
+  </si>
+  <si>
+    <t>000000001229041791</t>
+  </si>
+  <si>
+    <t>1229041808</t>
+  </si>
+  <si>
+    <t>SALA MADRE DE CALCUTA</t>
+  </si>
+  <si>
+    <t>AV CROVARA 5600 - MZA 15, CASA 202</t>
+  </si>
+  <si>
+    <t>ISIDRO CASANOVA</t>
+  </si>
+  <si>
+    <t>-34.7156903</t>
+  </si>
+  <si>
+    <t>-58.5646263</t>
+  </si>
+  <si>
+    <t>MS004843980</t>
+  </si>
+  <si>
+    <t>000000001229041808</t>
+  </si>
+  <si>
+    <t>1765</t>
+  </si>
+  <si>
+    <t>ROOFTOP</t>
+  </si>
+  <si>
+    <t>1229041809</t>
+  </si>
+  <si>
+    <t>HOSP MOVIL DON JUAN</t>
+  </si>
+  <si>
+    <t>SALVIGNY E/ TAFI Y TARIJA</t>
+  </si>
+  <si>
+    <t>-34.7641053</t>
+  </si>
+  <si>
+    <t>-58.5771155</t>
+  </si>
+  <si>
+    <t>MS004846412</t>
+  </si>
+  <si>
+    <t>000000001229041809</t>
+  </si>
+  <si>
+    <t>1229041852</t>
+  </si>
+  <si>
+    <t>PUESTO FIJO LOS CEIBOS</t>
+  </si>
+  <si>
+    <t>BORDOY Y DRAGONES</t>
+  </si>
+  <si>
+    <t>-34.79903</t>
+  </si>
+  <si>
+    <t>-58.62505</t>
+  </si>
+  <si>
+    <t>MS004844174</t>
+  </si>
+  <si>
+    <t>000000001229041852</t>
+  </si>
+  <si>
+    <t>1229041854</t>
+  </si>
+  <si>
+    <t>UNID SANIT SAN PEDRO</t>
+  </si>
+  <si>
+    <t>SANTIAGO DEL ESTERO 3389 E/ BUERAS Y M.</t>
+  </si>
+  <si>
+    <t>VIRREY DEL PINO</t>
+  </si>
+  <si>
+    <t>-34.8222274</t>
+  </si>
+  <si>
+    <t>-58.6362437</t>
+  </si>
+  <si>
+    <t>MS004845832</t>
+  </si>
+  <si>
+    <t>000000001229041854</t>
+  </si>
+  <si>
+    <t>1763</t>
+  </si>
+  <si>
+    <t>1229041900</t>
+  </si>
+  <si>
+    <t>-34.74912</t>
+  </si>
+  <si>
+    <t>-58.59612</t>
+  </si>
+  <si>
+    <t>MS004846411</t>
+  </si>
+  <si>
+    <t>000000001229041900</t>
+  </si>
+  <si>
+    <t>1229042112</t>
+  </si>
+  <si>
+    <t>LAS ANTENAS - CIC</t>
+  </si>
+  <si>
+    <t>AV SAN MARTIN 4350 - Vª INSUPERABLE</t>
+  </si>
+  <si>
+    <t>LOMAS DEL MIRADOR</t>
+  </si>
+  <si>
+    <t>-34.6770401</t>
+  </si>
+  <si>
+    <t>-58.5243154</t>
+  </si>
+  <si>
+    <t>MS004843942</t>
+  </si>
+  <si>
+    <t>000000001229042112</t>
+  </si>
+  <si>
+    <t>1752</t>
+  </si>
+  <si>
+    <t>1229042116</t>
+  </si>
+  <si>
+    <t>SPB - ALCAIDIA DEPARTAMENTAL N° 56-</t>
+  </si>
+  <si>
+    <t>CAÑUELAS 5300 Y MASOTTI</t>
+  </si>
+  <si>
+    <t>-34.8314</t>
+  </si>
+  <si>
+    <t>-58.65406</t>
+  </si>
+  <si>
+    <t>MS004844060</t>
+  </si>
+  <si>
+    <t>000000001229042116</t>
+  </si>
+  <si>
+    <t>1229042268</t>
+  </si>
+  <si>
+    <t>UNID SANIT SATURNINO SEGUROLA</t>
+  </si>
+  <si>
+    <t>NECOCHEA 4226 E/ GIBRALTAR Y PEDRIEL</t>
+  </si>
+  <si>
+    <t>TABLADA</t>
+  </si>
+  <si>
+    <t>-34.6791426</t>
+  </si>
+  <si>
+    <t>-58.531295</t>
+  </si>
+  <si>
+    <t>MS004845958</t>
+  </si>
+  <si>
+    <t>000000001229042268</t>
+  </si>
+  <si>
+    <t>1229042333</t>
+  </si>
+  <si>
+    <t>UNIDAD DE SALUD JUSTO VILLEGAS</t>
+  </si>
+  <si>
+    <t>GUATEMALA 4905 E/ GAVILAN Y ASAMBLEA</t>
+  </si>
+  <si>
+    <t>-34.70499</t>
+  </si>
+  <si>
+    <t>-58.55652</t>
+  </si>
+  <si>
+    <t>MS004846115</t>
+  </si>
+  <si>
+    <t>000000001229042333</t>
+  </si>
+  <si>
+    <t>1229042399</t>
+  </si>
+  <si>
+    <t>-34.7050243</t>
+  </si>
+  <si>
+    <t>-58.5565694</t>
+  </si>
+  <si>
+    <t>MS004846116</t>
+  </si>
+  <si>
+    <t>000000001229042399</t>
+  </si>
+  <si>
+    <t>1229042492</t>
+  </si>
+  <si>
+    <t>UNID SANIT DR ALFONSO SAKAMOTO</t>
+  </si>
+  <si>
+    <t>DAVILA 2110 Y JARAMILLO</t>
+  </si>
+  <si>
+    <t>RAFAEL CASTILLO</t>
+  </si>
+  <si>
+    <t>-34.70025</t>
+  </si>
+  <si>
+    <t>-58.63122</t>
+  </si>
+  <si>
+    <t>MS004845324</t>
+  </si>
+  <si>
+    <t>000000001229042492</t>
+  </si>
+  <si>
+    <t>1755</t>
+  </si>
+  <si>
+    <t>1229042495</t>
+  </si>
+  <si>
+    <t>SALA DE SALUD LA ESPERANZA</t>
+  </si>
+  <si>
+    <t>SCHUBERT Y APENINOS - Bº ESPERANZA</t>
+  </si>
+  <si>
+    <t>-34.85929</t>
+  </si>
+  <si>
+    <t>-58.66474</t>
+  </si>
+  <si>
+    <t>MS004845302</t>
+  </si>
+  <si>
+    <t>000000001229042495</t>
+  </si>
+  <si>
+    <t>1229042568</t>
+  </si>
+  <si>
+    <t>MS004845325</t>
+  </si>
+  <si>
+    <t>000000001229042568</t>
+  </si>
+  <si>
+    <t>HERE</t>
+  </si>
+  <si>
+    <t>1229042583</t>
+  </si>
+  <si>
+    <t>-34.8420179</t>
+  </si>
+  <si>
+    <t>-58.6385416</t>
+  </si>
+  <si>
+    <t>MS004845303</t>
+  </si>
+  <si>
+    <t>000000001229042583</t>
+  </si>
+  <si>
+    <t>1229042660</t>
+  </si>
+  <si>
+    <t>UNID SANIT Bº NICOLLE</t>
+  </si>
+  <si>
+    <t>8 E/ 101 Y 102 -  Bº NICOLLE</t>
+  </si>
+  <si>
+    <t>-34.84196</t>
+  </si>
+  <si>
+    <t>-58.65083</t>
+  </si>
+  <si>
+    <t>MS004845304</t>
+  </si>
+  <si>
+    <t>000000001229042660</t>
+  </si>
+  <si>
+    <t>1229042670</t>
+  </si>
+  <si>
+    <t>MS004845326</t>
+  </si>
+  <si>
+    <t>000000001229042670</t>
+  </si>
+  <si>
+    <t>1229042771</t>
+  </si>
+  <si>
+    <t>-34.5994738</t>
+  </si>
+  <si>
+    <t>-58.4033717</t>
+  </si>
+  <si>
+    <t>MS004845305</t>
+  </si>
+  <si>
+    <t>000000001229042771</t>
+  </si>
+  <si>
+    <t>1229042780</t>
+  </si>
+  <si>
+    <t>UNID SANIT EL TAMBO</t>
+  </si>
+  <si>
+    <t>BACH Y OBLIGADO</t>
+  </si>
+  <si>
+    <t>-34.71739</t>
+  </si>
+  <si>
+    <t>-58.57968</t>
+  </si>
+  <si>
+    <t>MS004845327</t>
+  </si>
+  <si>
+    <t>000000001229042780</t>
+  </si>
+  <si>
+    <t>1229042781</t>
+  </si>
+  <si>
+    <t>UNID SANIT DR DOMINGO ROCCA</t>
+  </si>
+  <si>
+    <t>MILLER 4250 E/ CAMARGO Y BYNNON</t>
+  </si>
+  <si>
+    <t>-34.82246</t>
+  </si>
+  <si>
+    <t>-58.65154</t>
+  </si>
+  <si>
+    <t>MS004845315</t>
+  </si>
+  <si>
+    <t>000000001229042781</t>
+  </si>
+  <si>
+    <t>1229042789</t>
+  </si>
+  <si>
+    <t>MS004845306</t>
+  </si>
+  <si>
+    <t>000000001229042789</t>
+  </si>
+  <si>
+    <t>1229042849</t>
+  </si>
+  <si>
+    <t>UNID SANIT JUAN MANUEL DE ROSAS</t>
+  </si>
+  <si>
+    <t>RUIZ DE LOS LLANOS 267 E/ BACH Y ALMEIRA</t>
+  </si>
+  <si>
+    <t>-34.7225651</t>
+  </si>
+  <si>
+    <t>-58.5730803</t>
+  </si>
+  <si>
+    <t>MS004845956</t>
+  </si>
+  <si>
+    <t>000000001229042849</t>
+  </si>
+  <si>
+    <t>1229042869</t>
+  </si>
+  <si>
+    <t>-34.6826628</t>
+  </si>
+  <si>
+    <t>-58.5748754</t>
+  </si>
+  <si>
+    <t>MS004845316</t>
+  </si>
+  <si>
+    <t>000000001229042869</t>
+  </si>
+  <si>
+    <t>1229042890</t>
+  </si>
+  <si>
+    <t>-34.7960828</t>
+  </si>
+  <si>
+    <t>-58.6213024</t>
+  </si>
+  <si>
+    <t>MS004844175</t>
+  </si>
+  <si>
+    <t>000000001229042890</t>
+  </si>
+  <si>
+    <t>1229042908</t>
+  </si>
+  <si>
+    <t>MS004845957</t>
+  </si>
+  <si>
+    <t>000000001229042908</t>
+  </si>
+  <si>
+    <t>1229042923</t>
+  </si>
+  <si>
+    <t>MS004845317</t>
+  </si>
+  <si>
+    <t>000000001229042923</t>
+  </si>
+  <si>
+    <t>1229042930</t>
+  </si>
+  <si>
+    <t>UNID SANIT IGNACIO EZCURRA DE V. DO</t>
+  </si>
+  <si>
+    <t>MONSEÑOR LOPEZ MAY 6560</t>
+  </si>
+  <si>
+    <t>-34.77353</t>
+  </si>
+  <si>
+    <t>-58.61318</t>
+  </si>
+  <si>
+    <t>MS004845328</t>
+  </si>
+  <si>
+    <t>000000001229042930</t>
+  </si>
+  <si>
+    <t>1229042989</t>
+  </si>
+  <si>
+    <t>CENTRO MEDICO RAMON CARRILLO</t>
+  </si>
+  <si>
+    <t>AUTOPISTA RICHIERI Y BOULOGNE SUR MER</t>
+  </si>
+  <si>
+    <t>TAPIALES</t>
+  </si>
+  <si>
+    <t>-34.7068</t>
+  </si>
+  <si>
+    <t>-58.50194</t>
+  </si>
+  <si>
+    <t>MS004846157</t>
+  </si>
+  <si>
+    <t>000000001229042989</t>
+  </si>
+  <si>
+    <t>1771</t>
+  </si>
+  <si>
+    <t>1229043021</t>
+  </si>
+  <si>
+    <t>MS004845318</t>
+  </si>
+  <si>
+    <t>000000001229043021</t>
+  </si>
+  <si>
+    <t>1229043047</t>
+  </si>
+  <si>
+    <t>MS004845329</t>
+  </si>
+  <si>
+    <t>000000001229043047</t>
+  </si>
+  <si>
+    <t>1229043143</t>
+  </si>
+  <si>
+    <t>-34.7007972</t>
+  </si>
+  <si>
+    <t>-58.5028329</t>
+  </si>
+  <si>
+    <t>MS004846158</t>
+  </si>
+  <si>
+    <t>000000001229043143</t>
+  </si>
+  <si>
+    <t>1229043145</t>
+  </si>
+  <si>
+    <t>MS004845319</t>
+  </si>
+  <si>
+    <t>000000001229043145</t>
+  </si>
+  <si>
+    <t>1229043149</t>
+  </si>
+  <si>
+    <t>UNID SANIT Vª GIARDINO</t>
+  </si>
+  <si>
+    <t>RECUERO Y RUIZ DE LOS LLANOS</t>
+  </si>
+  <si>
+    <t>-34.63253</t>
+  </si>
+  <si>
+    <t>-58.45075</t>
+  </si>
+  <si>
+    <t>MS004846309</t>
+  </si>
+  <si>
+    <t>000000001229043149</t>
+  </si>
+  <si>
+    <t>1229043314</t>
+  </si>
+  <si>
+    <t>UNID SANIT FRANCISCO CAPUTTO</t>
+  </si>
+  <si>
+    <t>SAN CARLOS E/ NUMANCIA Y NUEVA YORK</t>
+  </si>
+  <si>
+    <t>-34.8782176</t>
+  </si>
+  <si>
+    <t>-58.6757177</t>
+  </si>
+  <si>
+    <t>MS004844835</t>
+  </si>
+  <si>
+    <t>000000001229043314</t>
+  </si>
+  <si>
+    <t>1229043318</t>
+  </si>
+  <si>
+    <t>UNIDAD DE SALUD Bº 17 DE MARZO (MZN</t>
+  </si>
+  <si>
+    <t>GAVILAN 5235 Y SEGUNDO SOMBRA</t>
+  </si>
+  <si>
+    <t>-34.7125376</t>
+  </si>
+  <si>
+    <t>-58.5629932</t>
+  </si>
+  <si>
+    <t>MS004844241</t>
+  </si>
+  <si>
+    <t>000000001229043318</t>
+  </si>
+  <si>
+    <t>1229043442</t>
+  </si>
+  <si>
+    <t>SPB - UNIDAD PENAL Nº 43</t>
+  </si>
+  <si>
+    <t>SCARLATTI 5100 E/ TUPUNGATO Y JACHAL</t>
+  </si>
+  <si>
+    <t>-34.78366</t>
+  </si>
+  <si>
+    <t>-58.64792</t>
+  </si>
+  <si>
+    <t>MS004846479</t>
+  </si>
+  <si>
+    <t>000000001229043442</t>
+  </si>
+  <si>
+    <t>1229043565</t>
+  </si>
+  <si>
+    <t>-34.89113</t>
+  </si>
+  <si>
+    <t>-58.6924</t>
+  </si>
+  <si>
+    <t>MS004844836</t>
+  </si>
+  <si>
+    <t>000000001229043565</t>
+  </si>
+  <si>
+    <t>1229043616</t>
+  </si>
+  <si>
+    <t>MS004844242</t>
+  </si>
+  <si>
+    <t>000000001229043616</t>
+  </si>
+  <si>
+    <t>1229043643</t>
+  </si>
+  <si>
+    <t>SSNYA - CENTRO CERRADO PARA JOVENES</t>
+  </si>
+  <si>
+    <t>CAÑUELAS 5300 Y PAVON</t>
+  </si>
+  <si>
+    <t>MS004846533</t>
+  </si>
+  <si>
+    <t>000000001229043643</t>
+  </si>
+  <si>
+    <t>1229664797</t>
+  </si>
+  <si>
+    <t>CENTRALAB</t>
+  </si>
+  <si>
+    <t>CNEL. NICETO VEGA 5651, 3RD FLOOR</t>
   </si>
   <si>
     <t>CAPITAL FEDERAL</t>
@@ -192,358 +1113,40 @@
     <t>Capital Federal</t>
   </si>
   <si>
-    <t>0800</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>SECRETARIA GENERAL DE GOBIERNO</t>
-  </si>
-  <si>
-    <t>2251663</t>
-  </si>
-  <si>
-    <t>000000001229120784</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1405</t>
-  </si>
-  <si>
-    <t>Envio</t>
-  </si>
-  <si>
-    <t>20251118</t>
-  </si>
-  <si>
-    <t>Distribución de paquetes c/acuse priorit</t>
-  </si>
-  <si>
-    <t>No responde al Llamado</t>
+    <t>Ocasa Inc (Miami)</t>
+  </si>
+  <si>
+    <t>+54 11 45569514</t>
+  </si>
+  <si>
+    <t>M7829255</t>
+  </si>
+  <si>
+    <t>000000001229664797</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>1414</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HUMAN BIOLOGICAL SUBSTANCE                  CATEGORY B UN3373</t>
+  </si>
+  <si>
+    <t>20251127</t>
+  </si>
+  <si>
+    <t>HUMAN BIOLOGICAL SUBSTANCES CAT B-UN3373</t>
+  </si>
+  <si>
+    <t>Retirado</t>
   </si>
   <si>
     <t>BUE</t>
   </si>
   <si>
-    <t>PENDIENTE DE RENDICION</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>Distribución de paquetes</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1229277658</t>
-  </si>
-  <si>
-    <t>CAMARA EL TALAR</t>
-  </si>
-  <si>
-    <t>MARCOS SASTRE</t>
-  </si>
-  <si>
-    <t>1088</t>
-  </si>
-  <si>
-    <t>EL TALAR</t>
-  </si>
-  <si>
-    <t>Buenos Aires</t>
-  </si>
-  <si>
-    <t>TRANSFARMACO S.A.</t>
-  </si>
-  <si>
-    <t>-34.47688069</t>
-  </si>
-  <si>
-    <t>-58.66501408</t>
-  </si>
-  <si>
-    <t>6396481</t>
-  </si>
-  <si>
-    <t>000000001229277658</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>1618</t>
-  </si>
-  <si>
-    <t>20251120</t>
-  </si>
-  <si>
-    <t>RETORNO NEVERA + DATALLOGER</t>
-  </si>
-  <si>
-    <t>Retirado</t>
-  </si>
-  <si>
-    <t>GBAN</t>
-  </si>
-  <si>
-    <t>PENDIENTE DE DISTRIBUCION</t>
-  </si>
-  <si>
-    <t>Dist. medicamentos, insum. y Tec. médica</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>1229569538</t>
-  </si>
-  <si>
-    <t>FUNDAC PARA LA LUCHA</t>
-  </si>
-  <si>
-    <t>RUTA 9 KM 53</t>
-  </si>
-  <si>
-    <t>ESCOBAR</t>
-  </si>
-  <si>
-    <t>TUTEUR SACIFIA</t>
-  </si>
-  <si>
-    <t>000000001229569538</t>
-  </si>
-  <si>
-    <t>1625</t>
-  </si>
-  <si>
-    <t>20251126</t>
-  </si>
-  <si>
-    <t>DISTR MED AMBIENTE  C/SEGURO ESTANDAR</t>
-  </si>
-  <si>
-    <t>1229591262</t>
-  </si>
-  <si>
-    <t>Hospital Italiano de Buenos Aires</t>
-  </si>
-  <si>
-    <t>PRESIDENTE PERON</t>
-  </si>
-  <si>
-    <t>4190</t>
-  </si>
-  <si>
-    <t>Ocasa Inc (Miami)</t>
-  </si>
-  <si>
-    <t>BPHA036325</t>
-  </si>
-  <si>
-    <t>000000001229591262</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>1181</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PRA ID JJPDP301-CDP301 - GUIA 7204022140 - INVOICE SORD28913</t>
-  </si>
-  <si>
-    <t>Servicio de carga - RED AEREA</t>
-  </si>
-  <si>
-    <t>Servicio de carga - RED</t>
-  </si>
-  <si>
-    <t>1229601970</t>
-  </si>
-  <si>
-    <t>LABORATORIO ELEA PHOENIX S A</t>
-  </si>
-  <si>
-    <t>AV. GRAL LEMOS</t>
-  </si>
-  <si>
-    <t>2809</t>
-  </si>
-  <si>
-    <t>LOS POLVORINES</t>
-  </si>
-  <si>
-    <t>43794300</t>
-  </si>
-  <si>
-    <t>2844439537</t>
-  </si>
-  <si>
-    <t>000000001229601970</t>
-  </si>
-  <si>
-    <t>1613</t>
-  </si>
-  <si>
-    <t>RETORNO CONTENEDOR *URGENTE* AMB</t>
-  </si>
-  <si>
-    <t>1229042235</t>
-  </si>
-  <si>
-    <t>UNID SANIT Nº 7 EIZAGUIRRE</t>
-  </si>
-  <si>
-    <t>GONZALEZ CHAVEZ Y JUAREZ CELMAN</t>
-  </si>
-  <si>
-    <t>VILLA CELINA</t>
-  </si>
-  <si>
-    <t>LOG IN FARMA SRL</t>
-  </si>
-  <si>
-    <t>-34.7027708</t>
-  </si>
-  <si>
-    <t>-58.4909241</t>
-  </si>
-  <si>
-    <t>MS004845320</t>
-  </si>
-  <si>
-    <t>000000001229042235</t>
-  </si>
-  <si>
-    <t>1772</t>
-  </si>
-  <si>
-    <t>20251117</t>
-  </si>
-  <si>
-    <t>Distribucion Botiquines Estandar</t>
-  </si>
-  <si>
-    <t>GBAS</t>
-  </si>
-  <si>
-    <t>GoogleAPI</t>
-  </si>
-  <si>
-    <t>UNKNOW</t>
-  </si>
-  <si>
-    <t>1229042314</t>
-  </si>
-  <si>
-    <t>MS004845321</t>
-  </si>
-  <si>
-    <t>000000001229042314</t>
-  </si>
-  <si>
-    <t>1229042419</t>
-  </si>
-  <si>
-    <t>-34.51389</t>
-  </si>
-  <si>
-    <t>-58.54264</t>
-  </si>
-  <si>
-    <t>MS004845322</t>
-  </si>
-  <si>
-    <t>000000001229042419</t>
-  </si>
-  <si>
-    <t>UrlHere</t>
-  </si>
-  <si>
-    <t>APPROXIMATE</t>
-  </si>
-  <si>
-    <t>1229042498</t>
-  </si>
-  <si>
-    <t>MS004845323</t>
-  </si>
-  <si>
-    <t>000000001229042498</t>
-  </si>
-  <si>
-    <t>1229042570</t>
-  </si>
-  <si>
-    <t>SALA DE SALUD JOSE HERNANDEZ</t>
-  </si>
-  <si>
-    <t>LOS NOGALES S/N E/ LOBOS Y PASO DE LOS A</t>
-  </si>
-  <si>
-    <t>LA MATANZA</t>
-  </si>
-  <si>
-    <t>-34.70625</t>
-  </si>
-  <si>
-    <t>-58.50572</t>
-  </si>
-  <si>
-    <t>MS004846417</t>
-  </si>
-  <si>
-    <t>000000001229042570</t>
-  </si>
-  <si>
-    <t>ROOFTOP</t>
-  </si>
-  <si>
-    <t>1229575729</t>
-  </si>
-  <si>
-    <t>MARKEN BUENOS AIRES</t>
-  </si>
-  <si>
-    <t>AV. OLIVOS</t>
-  </si>
-  <si>
-    <t>3140</t>
-  </si>
-  <si>
-    <t>TORTUGUITAS</t>
-  </si>
-  <si>
-    <t>MARKEN TIME CRITICAL EXPRESS S.A.</t>
-  </si>
-  <si>
-    <t>627X37544112</t>
-  </si>
-  <si>
-    <t>000000001229575729</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>1667</t>
-  </si>
-  <si>
-    <t>RETORNO INSUMOS A WH IRIARTE O MARKEN</t>
-  </si>
-  <si>
-    <t>Carga kits  nacional</t>
+    <t>Envío muestras biológ. y genét. CONG</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1655,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1060,13 +1663,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1423,20 +2019,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426C83C6-E88A-4A25-9AE7-A92F9D0A8C86}">
-  <dimension ref="A1:AX12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4C1966-391A-497A-82F1-07AA00AD7FCA}">
+  <dimension ref="A1:AX49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
@@ -1449,10 +2045,10 @@
     <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="32.85546875" bestFit="1" customWidth="1"/>
@@ -1467,8 +2063,8 @@
     <col min="35" max="35" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="12" bestFit="1" customWidth="1"/>
@@ -1478,7 +2074,7 @@
     <col min="47" max="47" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="13" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.2">
@@ -1643,80 +2239,80 @@
       <c r="C2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O2" s="3">
+        <v>7</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="N2" s="3">
-        <v>0</v>
-      </c>
-      <c r="O2" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="4">
-        <v>0</v>
-      </c>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
+        <v>437900</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AF2" s="1"/>
       <c r="AG2" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AH2" s="1"/>
       <c r="AI2" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM2" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="AM2" s="1"/>
       <c r="AN2" s="1" t="s">
         <v>69</v>
       </c>
@@ -1736,212 +2332,218 @@
       <c r="AT2" s="1"/>
       <c r="AU2" s="1"/>
       <c r="AV2" s="1"/>
-      <c r="AW2" s="1"/>
-      <c r="AX2" s="1"/>
+      <c r="AW2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N3" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O3" s="3">
+        <v>7</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0.06</v>
-      </c>
-      <c r="O3" s="3">
-        <v>12</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="4">
-        <v>0</v>
+        <v>303000</v>
       </c>
       <c r="U3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="AF3" s="1"/>
       <c r="AG3" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>89</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="AM3" s="1"/>
       <c r="AN3" s="1" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="AP3" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AR3" s="1"/>
       <c r="AS3" s="1" t="s">
         <v>73</v>
       </c>
       <c r="AT3" s="1"/>
-      <c r="AU3" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="AU3" s="1"/>
       <c r="AV3" s="1"/>
-      <c r="AW3" s="1"/>
-      <c r="AX3" s="1"/>
+      <c r="AW3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N4" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="O4" s="3">
         <v>1</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="4">
-        <v>142895</v>
-      </c>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
+        <v>168100</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="AF4" s="1"/>
       <c r="AG4" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="AM4" s="1"/>
       <c r="AN4" s="1" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="AP4" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AR4" s="1"/>
       <c r="AS4" s="1" t="s">
@@ -1950,104 +2552,108 @@
       <c r="AT4" s="1"/>
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
-      <c r="AW4" s="1"/>
-      <c r="AX4" s="1"/>
+      <c r="AW4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX4" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O5" s="3">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3">
-        <v>2.98</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="4">
-        <v>1</v>
-      </c>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
+        <v>303000</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="AF5" s="1"/>
       <c r="AG5" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>112</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="AH5" s="1"/>
       <c r="AI5" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AK5" s="1"/>
       <c r="AL5" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>89</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="AM5" s="1"/>
       <c r="AN5" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="AP5" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="AR5" s="1"/>
       <c r="AS5" s="1" t="s">
@@ -2056,106 +2662,108 @@
       <c r="AT5" s="1"/>
       <c r="AU5" s="1"/>
       <c r="AV5" s="1"/>
-      <c r="AW5" s="1"/>
-      <c r="AX5" s="1"/>
+      <c r="AW5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX5" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>118</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N6" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O6" s="3">
+        <v>7</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="N6" s="3">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="O6" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1" t="s">
-        <v>120</v>
-      </c>
+        <v>437900</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="AF6" s="1"/>
       <c r="AG6" s="1" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AK6" s="1"/>
       <c r="AL6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM6" s="1" t="s">
-        <v>89</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="AM6" s="1"/>
       <c r="AN6" s="1" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="AP6" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AR6" s="1"/>
       <c r="AS6" s="1" t="s">
@@ -2164,664 +2772,4740 @@
       <c r="AT6" s="1"/>
       <c r="AU6" s="1"/>
       <c r="AV6" s="1"/>
-      <c r="AW6" s="1"/>
-      <c r="AX6" s="1"/>
+      <c r="AW6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX6" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5" t="s">
+      <c r="A7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5" t="s">
+      <c r="N7" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O7" s="3">
+        <v>7</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="N7" s="6">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="O7" s="6">
-        <v>7</v>
-      </c>
-      <c r="P7" s="5" t="s">
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="S7" s="5"/>
-      <c r="T7" s="7">
-        <v>370450</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="V7" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="AH7" s="5"/>
-      <c r="AI7" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ7" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="AK7" s="5"/>
-      <c r="AL7" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="AM7" s="5"/>
-      <c r="AN7" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="AO7" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP7" s="5" t="s">
+      <c r="S7" s="1"/>
+      <c r="T7" s="4">
+        <v>304215</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AQ7" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR7" s="5"/>
-      <c r="AS7" s="5" t="s">
+      <c r="AQ7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AT7" s="5"/>
-      <c r="AU7" s="5"/>
-      <c r="AV7" s="5"/>
-      <c r="AW7" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="AX7" s="5" t="s">
-        <v>139</v>
+      <c r="AT7" s="1"/>
+      <c r="AU7" s="1"/>
+      <c r="AV7" s="1"/>
+      <c r="AW7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX7" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5" t="s">
+      <c r="A8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5" t="s">
+      <c r="N8" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="N8" s="6">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="O8" s="6">
-        <v>7</v>
-      </c>
-      <c r="P8" s="5" t="s">
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="S8" s="5"/>
-      <c r="T8" s="7">
-        <v>370450</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="V8" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="AH8" s="5"/>
-      <c r="AI8" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ8" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="AM8" s="5"/>
-      <c r="AN8" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="AO8" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP8" s="5" t="s">
+      <c r="S8" s="1"/>
+      <c r="T8" s="4">
+        <v>168100</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AQ8" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR8" s="5"/>
-      <c r="AS8" s="5" t="s">
+      <c r="AQ8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AT8" s="5"/>
-      <c r="AU8" s="5"/>
-      <c r="AV8" s="5"/>
-      <c r="AW8" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="AX8" s="5" t="s">
-        <v>139</v>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="1"/>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AX8" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N9" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O9" s="3">
+        <v>7</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S9" s="1"/>
+      <c r="T9" s="4">
+        <v>437900</v>
+      </c>
+      <c r="U9" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="V9" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="N9" s="6">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="O9" s="6">
-        <v>7</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5" t="s">
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="S9" s="5"/>
-      <c r="T9" s="7">
-        <v>370450</v>
-      </c>
-      <c r="U9" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="V9" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF9" s="5"/>
-      <c r="AG9" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="AH9" s="5"/>
-      <c r="AI9" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ9" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="AK9" s="5"/>
-      <c r="AL9" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="AM9" s="5"/>
-      <c r="AN9" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="AO9" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP9" s="5" t="s">
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AQ9" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR9" s="5"/>
-      <c r="AS9" s="5" t="s">
+      <c r="AQ9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR9" s="1"/>
+      <c r="AS9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AT9" s="5"/>
-      <c r="AU9" s="5"/>
-      <c r="AV9" s="5"/>
-      <c r="AW9" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="AX9" s="5" t="s">
-        <v>149</v>
+      <c r="AT9" s="1"/>
+      <c r="AU9" s="1"/>
+      <c r="AV9" s="1"/>
+      <c r="AW9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX9" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5" t="s">
+      <c r="A10" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5" t="s">
+      <c r="N10" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="N10" s="6">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="O10" s="6">
-        <v>1</v>
-      </c>
-      <c r="P10" s="5" t="s">
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="S10" s="5"/>
-      <c r="T10" s="7">
-        <v>370450</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="V10" s="5" t="s">
+      <c r="S10" s="1"/>
+      <c r="T10" s="4">
+        <v>304215</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF10" s="5"/>
-      <c r="AG10" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="AH10" s="5"/>
-      <c r="AI10" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ10" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="AK10" s="5"/>
-      <c r="AL10" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="AM10" s="5"/>
-      <c r="AN10" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="AO10" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP10" s="5" t="s">
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AQ10" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR10" s="5"/>
-      <c r="AS10" s="5" t="s">
+      <c r="AQ10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR10" s="1"/>
+      <c r="AS10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AT10" s="5"/>
-      <c r="AU10" s="5"/>
-      <c r="AV10" s="5"/>
-      <c r="AW10" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="AX10" s="5" t="s">
-        <v>139</v>
+      <c r="AT10" s="1"/>
+      <c r="AU10" s="1"/>
+      <c r="AV10" s="1"/>
+      <c r="AW10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AX10" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5" t="s">
+      <c r="A11" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5" t="s">
+      <c r="N11" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O11" s="3">
+        <v>7</v>
+      </c>
+      <c r="P11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="N11" s="6">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="O11" s="6">
-        <v>7</v>
-      </c>
-      <c r="P11" s="5" t="s">
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="S11" s="5"/>
-      <c r="T11" s="7">
-        <v>440331</v>
-      </c>
-      <c r="U11" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="V11" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD11" s="5"/>
-      <c r="AE11" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF11" s="5"/>
-      <c r="AG11" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="AH11" s="5"/>
-      <c r="AI11" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ11" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="AK11" s="5"/>
-      <c r="AL11" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="AM11" s="5"/>
-      <c r="AN11" s="5" t="s">
+      <c r="S11" s="1"/>
+      <c r="T11" s="4">
+        <v>436925</v>
+      </c>
+      <c r="U11" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AO11" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP11" s="5" t="s">
+      <c r="V11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AQ11" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR11" s="5"/>
-      <c r="AS11" s="5" t="s">
+      <c r="AQ11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AT11" s="5"/>
-      <c r="AU11" s="5"/>
-      <c r="AV11" s="5"/>
-      <c r="AW11" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="AX11" s="5" t="s">
-        <v>161</v>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="1"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AX11" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N12" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O12" s="3">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S12" s="1"/>
+      <c r="T12" s="4">
+        <v>304215</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="1"/>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX12" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N13" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O13" s="3">
+        <v>7</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S13" s="1"/>
+      <c r="T13" s="4">
+        <v>302512</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR13" s="1"/>
+      <c r="AS13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT13" s="1"/>
+      <c r="AU13" s="1"/>
+      <c r="AV13" s="1"/>
+      <c r="AW13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX13" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N14" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O14" s="3">
+        <v>7</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S14" s="1"/>
+      <c r="T14" s="4">
+        <v>437900</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="V14" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR14" s="1"/>
+      <c r="AS14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT14" s="1"/>
+      <c r="AU14" s="1"/>
+      <c r="AV14" s="1"/>
+      <c r="AW14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX14" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5" t="s">
+      <c r="B15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N15" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O15" s="3">
+        <v>7</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S15" s="1"/>
+      <c r="T15" s="4">
+        <v>304215</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR15" s="1"/>
+      <c r="AS15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT15" s="1"/>
+      <c r="AU15" s="1"/>
+      <c r="AV15" s="1"/>
+      <c r="AW15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX15" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N16" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O16" s="3">
+        <v>7</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S16" s="1"/>
+      <c r="T16" s="4">
+        <v>436925</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR16" s="1"/>
+      <c r="AS16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT16" s="1"/>
+      <c r="AU16" s="1"/>
+      <c r="AV16" s="1"/>
+      <c r="AW16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX16" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N17" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O17" s="3">
+        <v>4</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S17" s="1"/>
+      <c r="T17" s="4">
+        <v>378146</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR17" s="1"/>
+      <c r="AS17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT17" s="1"/>
+      <c r="AU17" s="1"/>
+      <c r="AV17" s="1"/>
+      <c r="AW17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX17" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N18" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O18" s="3">
+        <v>7</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S18" s="1"/>
+      <c r="T18" s="4">
+        <v>437900</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR18" s="1"/>
+      <c r="AS18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT18" s="1"/>
+      <c r="AU18" s="1"/>
+      <c r="AV18" s="1"/>
+      <c r="AW18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX18" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N19" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O19" s="3">
+        <v>7</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S19" s="1"/>
+      <c r="T19" s="4">
+        <v>303000</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR19" s="1"/>
+      <c r="AS19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT19" s="1"/>
+      <c r="AU19" s="1"/>
+      <c r="AV19" s="1"/>
+      <c r="AW19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX19" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N20" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O20" s="3">
+        <v>1</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S20" s="1"/>
+      <c r="T20" s="4">
+        <v>303000</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR20" s="1"/>
+      <c r="AS20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT20" s="1"/>
+      <c r="AU20" s="1"/>
+      <c r="AV20" s="1"/>
+      <c r="AW20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX20" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N21" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O21" s="3">
+        <v>7</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S21" s="1"/>
+      <c r="T21" s="4">
+        <v>347967</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR21" s="1"/>
+      <c r="AS21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT21" s="1"/>
+      <c r="AU21" s="1"/>
+      <c r="AV21" s="1"/>
+      <c r="AW21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX21" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N22" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O22" s="3">
+        <v>7</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S22" s="1"/>
+      <c r="T22" s="4">
+        <v>303000</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR22" s="1"/>
+      <c r="AS22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT22" s="1"/>
+      <c r="AU22" s="1"/>
+      <c r="AV22" s="1"/>
+      <c r="AW22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX22" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N23" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O23" s="3">
+        <v>7</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S23" s="1"/>
+      <c r="T23" s="4">
+        <v>347967</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK23" s="1"/>
+      <c r="AL23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM23" s="1"/>
+      <c r="AN23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR23" s="1"/>
+      <c r="AS23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT23" s="1"/>
+      <c r="AU23" s="1"/>
+      <c r="AV23" s="1"/>
+      <c r="AW23" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AX23" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N24" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O24" s="3">
+        <v>1</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S24" s="1"/>
+      <c r="T24" s="4">
+        <v>303000</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM24" s="1"/>
+      <c r="AN24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR24" s="1"/>
+      <c r="AS24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT24" s="1"/>
+      <c r="AU24" s="1"/>
+      <c r="AV24" s="1"/>
+      <c r="AW24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX24" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5" t="s">
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5" t="s">
+      <c r="N25" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O25" s="3">
+        <v>7</v>
+      </c>
+      <c r="P25" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="N12" s="6">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="O12" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="P12" s="5" t="s">
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="S12" s="5"/>
-      <c r="T12" s="7">
-        <v>0</v>
-      </c>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="AH12" s="5"/>
-      <c r="AI12" s="5" t="s">
+      <c r="S25" s="1"/>
+      <c r="T25" s="4">
+        <v>347967</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK25" s="1"/>
+      <c r="AL25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM25" s="1"/>
+      <c r="AN25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR25" s="1"/>
+      <c r="AS25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT25" s="1"/>
+      <c r="AU25" s="1"/>
+      <c r="AV25" s="1"/>
+      <c r="AW25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX25" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N26" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O26" s="3">
+        <v>1</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S26" s="1"/>
+      <c r="T26" s="4">
+        <v>347967</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR26" s="1"/>
+      <c r="AS26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT26" s="1"/>
+      <c r="AU26" s="1"/>
+      <c r="AV26" s="1"/>
+      <c r="AW26" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AX26" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N27" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O27" s="3">
+        <v>7</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S27" s="1"/>
+      <c r="T27" s="4">
+        <v>347967</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR27" s="1"/>
+      <c r="AS27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT27" s="1"/>
+      <c r="AU27" s="1"/>
+      <c r="AV27" s="1"/>
+      <c r="AW27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX27" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N28" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O28" s="3">
+        <v>7</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S28" s="1"/>
+      <c r="T28" s="4">
+        <v>437900</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK28" s="1"/>
+      <c r="AL28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR28" s="1"/>
+      <c r="AS28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT28" s="1"/>
+      <c r="AU28" s="1"/>
+      <c r="AV28" s="1"/>
+      <c r="AW28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX28" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N29" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O29" s="3">
+        <v>7</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S29" s="1"/>
+      <c r="T29" s="4">
+        <v>329980</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AJ12" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AK12" s="5"/>
-      <c r="AL12" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="AM12" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="AN12" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AO12" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP12" s="5" t="s">
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP29" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AQ12" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="AR12" s="5"/>
-      <c r="AS12" s="5" t="s">
+      <c r="AQ29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR29" s="1"/>
+      <c r="AS29" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AT12" s="5"/>
-      <c r="AU12" s="5"/>
-      <c r="AV12" s="5"/>
-      <c r="AW12" s="5"/>
-      <c r="AX12" s="5"/>
+      <c r="AT29" s="1"/>
+      <c r="AU29" s="1"/>
+      <c r="AV29" s="1"/>
+      <c r="AW29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX29" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N30" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O30" s="3">
+        <v>1</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S30" s="1"/>
+      <c r="T30" s="4">
+        <v>347967</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR30" s="1"/>
+      <c r="AS30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT30" s="1"/>
+      <c r="AU30" s="1"/>
+      <c r="AV30" s="1"/>
+      <c r="AW30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX30" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N31" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O31" s="3">
+        <v>7</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S31" s="1"/>
+      <c r="T31" s="4">
+        <v>437900</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR31" s="1"/>
+      <c r="AS31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT31" s="1"/>
+      <c r="AU31" s="1"/>
+      <c r="AV31" s="1"/>
+      <c r="AW31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX31" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N32" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O32" s="3">
+        <v>7</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S32" s="1"/>
+      <c r="T32" s="4">
+        <v>329980</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK32" s="1"/>
+      <c r="AL32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM32" s="1"/>
+      <c r="AN32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR32" s="1"/>
+      <c r="AS32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT32" s="1"/>
+      <c r="AU32" s="1"/>
+      <c r="AV32" s="1"/>
+      <c r="AW32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX32" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N33" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O33" s="3">
+        <v>1</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S33" s="1"/>
+      <c r="T33" s="4">
+        <v>302512</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK33" s="1"/>
+      <c r="AL33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM33" s="1"/>
+      <c r="AN33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR33" s="1"/>
+      <c r="AS33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT33" s="1"/>
+      <c r="AU33" s="1"/>
+      <c r="AV33" s="1"/>
+      <c r="AW33" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX33" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N34" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O34" s="3">
+        <v>7</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S34" s="1"/>
+      <c r="T34" s="4">
+        <v>437900</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK34" s="1"/>
+      <c r="AL34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR34" s="1"/>
+      <c r="AS34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT34" s="1"/>
+      <c r="AU34" s="1"/>
+      <c r="AV34" s="1"/>
+      <c r="AW34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX34" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N35" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O35" s="3">
+        <v>7</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S35" s="1"/>
+      <c r="T35" s="4">
+        <v>329980</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH35" s="1"/>
+      <c r="AI35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK35" s="1"/>
+      <c r="AL35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM35" s="1"/>
+      <c r="AN35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR35" s="1"/>
+      <c r="AS35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT35" s="1"/>
+      <c r="AU35" s="1"/>
+      <c r="AV35" s="1"/>
+      <c r="AW35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX35" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N36" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O36" s="3">
+        <v>7</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S36" s="1"/>
+      <c r="T36" s="4">
+        <v>303000</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK36" s="1"/>
+      <c r="AL36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM36" s="1"/>
+      <c r="AN36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR36" s="1"/>
+      <c r="AS36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT36" s="1"/>
+      <c r="AU36" s="1"/>
+      <c r="AV36" s="1"/>
+      <c r="AW36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX36" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N37" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O37" s="3">
+        <v>7</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S37" s="1"/>
+      <c r="T37" s="4">
+        <v>303000</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="AH37" s="1"/>
+      <c r="AI37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK37" s="1"/>
+      <c r="AL37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM37" s="1"/>
+      <c r="AN37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR37" s="1"/>
+      <c r="AS37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT37" s="1"/>
+      <c r="AU37" s="1"/>
+      <c r="AV37" s="1"/>
+      <c r="AW37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX37" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N38" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O38" s="3">
+        <v>1</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S38" s="1"/>
+      <c r="T38" s="4">
+        <v>329980</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH38" s="1"/>
+      <c r="AI38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK38" s="1"/>
+      <c r="AL38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM38" s="1"/>
+      <c r="AN38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR38" s="1"/>
+      <c r="AS38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT38" s="1"/>
+      <c r="AU38" s="1"/>
+      <c r="AV38" s="1"/>
+      <c r="AW38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX38" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N39" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O39" s="3">
+        <v>1</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S39" s="1"/>
+      <c r="T39" s="4">
+        <v>303000</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK39" s="1"/>
+      <c r="AL39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM39" s="1"/>
+      <c r="AN39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR39" s="1"/>
+      <c r="AS39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT39" s="1"/>
+      <c r="AU39" s="1"/>
+      <c r="AV39" s="1"/>
+      <c r="AW39" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AX39" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N40" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O40" s="3">
+        <v>1</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S40" s="1"/>
+      <c r="T40" s="4">
+        <v>303000</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="AH40" s="1"/>
+      <c r="AI40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK40" s="1"/>
+      <c r="AL40" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM40" s="1"/>
+      <c r="AN40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP40" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR40" s="1"/>
+      <c r="AS40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT40" s="1"/>
+      <c r="AU40" s="1"/>
+      <c r="AV40" s="1"/>
+      <c r="AW40" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX40" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N41" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O41" s="3">
+        <v>1</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S41" s="1"/>
+      <c r="T41" s="4">
+        <v>329980</v>
+      </c>
+      <c r="U41" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK41" s="1"/>
+      <c r="AL41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM41" s="1"/>
+      <c r="AN41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP41" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR41" s="1"/>
+      <c r="AS41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT41" s="1"/>
+      <c r="AU41" s="1"/>
+      <c r="AV41" s="1"/>
+      <c r="AW41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX41" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N42" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O42" s="3">
+        <v>7</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S42" s="1"/>
+      <c r="T42" s="4">
+        <v>332580</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF42" s="1"/>
+      <c r="AG42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH42" s="1"/>
+      <c r="AI42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK42" s="1"/>
+      <c r="AL42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM42" s="1"/>
+      <c r="AN42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP42" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR42" s="1"/>
+      <c r="AS42" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT42" s="1"/>
+      <c r="AU42" s="1"/>
+      <c r="AV42" s="1"/>
+      <c r="AW42" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX42" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N43" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O43" s="3">
+        <v>7</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S43" s="1"/>
+      <c r="T43" s="4">
+        <v>303000</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF43" s="1"/>
+      <c r="AG43" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH43" s="1"/>
+      <c r="AI43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ43" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK43" s="1"/>
+      <c r="AL43" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM43" s="1"/>
+      <c r="AN43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP43" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR43" s="1"/>
+      <c r="AS43" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT43" s="1"/>
+      <c r="AU43" s="1"/>
+      <c r="AV43" s="1"/>
+      <c r="AW43" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX43" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N44" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O44" s="3">
+        <v>7</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S44" s="1"/>
+      <c r="T44" s="4">
+        <v>436925</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="V44" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF44" s="1"/>
+      <c r="AG44" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH44" s="1"/>
+      <c r="AI44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ44" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK44" s="1"/>
+      <c r="AL44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM44" s="1"/>
+      <c r="AN44" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO44" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR44" s="1"/>
+      <c r="AS44" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT44" s="1"/>
+      <c r="AU44" s="1"/>
+      <c r="AV44" s="1"/>
+      <c r="AW44" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX44" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N45" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O45" s="3">
+        <v>4</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S45" s="1"/>
+      <c r="T45" s="4">
+        <v>377796</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="V45" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF45" s="1"/>
+      <c r="AG45" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK45" s="1"/>
+      <c r="AL45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM45" s="1"/>
+      <c r="AN45" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP45" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR45" s="1"/>
+      <c r="AS45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT45" s="1"/>
+      <c r="AU45" s="1"/>
+      <c r="AV45" s="1"/>
+      <c r="AW45" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX45" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N46" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O46" s="3">
+        <v>1</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S46" s="1"/>
+      <c r="T46" s="4">
+        <v>303000</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF46" s="1"/>
+      <c r="AG46" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH46" s="1"/>
+      <c r="AI46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK46" s="1"/>
+      <c r="AL46" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM46" s="1"/>
+      <c r="AN46" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ46" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR46" s="1"/>
+      <c r="AS46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT46" s="1"/>
+      <c r="AU46" s="1"/>
+      <c r="AV46" s="1"/>
+      <c r="AW46" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX46" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N47" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O47" s="3">
+        <v>7</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S47" s="1"/>
+      <c r="T47" s="4">
+        <v>436925</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="V47" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF47" s="1"/>
+      <c r="AG47" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH47" s="1"/>
+      <c r="AI47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK47" s="1"/>
+      <c r="AL47" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM47" s="1"/>
+      <c r="AN47" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP47" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR47" s="1"/>
+      <c r="AS47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT47" s="1"/>
+      <c r="AU47" s="1"/>
+      <c r="AV47" s="1"/>
+      <c r="AW47" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX47" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N48" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O48" s="3">
+        <v>6</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S48" s="1"/>
+      <c r="T48" s="4">
+        <v>380871</v>
+      </c>
+      <c r="U48" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="V48" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF48" s="1"/>
+      <c r="AG48" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH48" s="1"/>
+      <c r="AI48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK48" s="1"/>
+      <c r="AL48" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM48" s="1"/>
+      <c r="AN48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR48" s="1"/>
+      <c r="AS48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT48" s="1"/>
+      <c r="AU48" s="1"/>
+      <c r="AV48" s="1"/>
+      <c r="AW48" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AX48" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N49" s="3">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="O49" s="3">
+        <v>3</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="S49" s="1"/>
+      <c r="T49" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="AF49" s="1"/>
+      <c r="AG49" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="AH49" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AI49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ49" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="AK49" s="1"/>
+      <c r="AL49" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AM49" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="AN49" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="AO49" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP49" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ49" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="AR49" s="1"/>
+      <c r="AS49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT49" s="1"/>
+      <c r="AU49" s="1"/>
+      <c r="AV49" s="1"/>
+      <c r="AW49" s="1"/>
+      <c r="AX49" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2830,7 +7514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B110C718-37C0-4850-8C68-B4B34FF7ACAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412B69CF-BC30-4625-87A5-BCC535ED34F6}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2842,7 +7526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC3901E-5A74-440E-A7C3-9739AEBEE1B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F3FDA-4FC7-465B-956F-C2BBDB21171B}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
